--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_105_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_105_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[5.212599666759412, 5.774447522707846]</t>
+          <t>[5.215601368074629, 5.771445821392629]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.19912092980701157, 0.5321048770440031]</t>
+          <t>[0.1990163575794277, 0.532209449271587]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>6.105903070685592e-05</v>
+        <v>6.160763552331971e-05</v>
       </c>
       <c r="V2" t="n">
-        <v>6.105903070685592e-05</v>
+        <v>6.160763552331971e-05</v>
       </c>
       <c r="W2" t="n">
         <v>5.107947947948084</v>
